--- a/src/test/java/com/WeatherReporting/testData.xlsx
+++ b/src/test/java/com/WeatherReporting/testData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rbakshi1/MyDocs/WeatherReporting/src/test/java/com/WeatherReporting/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25556AA1-3FF6-9949-A0BF-55D6362BD3E3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23DDD066-8DE7-F048-AD54-58DC18E58FD1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16420" activeTab="1" xr2:uid="{25214E09-1709-D84F-AD6C-27747AA99BB9}"/>
+    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16380" xr2:uid="{25214E09-1709-D84F-AD6C-27747AA99BB9}"/>
   </bookViews>
   <sheets>
     <sheet name="UI_Data" sheetId="2" r:id="rId1"/>
@@ -418,9 +418,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC484945-DCE6-FA46-8486-2E67DFB6D59E}">
   <dimension ref="A1:G1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:G13"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -466,9 +464,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1AD83DF-F669-224B-A7F1-E80615825696}">
   <dimension ref="A1:G1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:I19"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
